--- a/final_data_rr.xlsx
+++ b/final_data_rr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/Semestr 8/DS_Python/F1-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{76CA284F-FC99-40B1-B18F-69F95559C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEBB2CD6-BE64-4385-8C68-4214D11CDFF4}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{76CA284F-FC99-40B1-B18F-69F95559C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76D9CD7-F903-45A7-826C-B4363F062131}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,13 +397,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -429,16 +428,12 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -455,6 +450,9 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +759,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,764 +775,738 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>0.75131285190582275</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.1556119620800018</v>
-      </c>
-      <c r="D2" s="17">
-        <v>3.0412046238780022E-2</v>
-      </c>
-      <c r="E2" s="17">
-        <v>2.846082299947739E-2</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1.385669130831957E-2</v>
-      </c>
-      <c r="G2" s="17">
-        <v>2.0345469936728481E-2</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="B2" s="15">
+        <v>0.8307875394821167</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.1044270917773247</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1.9295798614621159E-2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2.047540619969368E-2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1.00927734747529E-2</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1.492130383849144E-2</v>
+      </c>
+      <c r="H2" s="17">
         <v>1127</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <f>SUMPRODUCT(B2:G2,$B$21:$G$21)</f>
-        <v>4.4392992341890931</v>
-      </c>
-      <c r="L2" s="38">
+        <v>4.6059705270454288</v>
+      </c>
+      <c r="L2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>0</v>
       </c>
-      <c r="B3" s="20">
-        <v>0.15744185447692871</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0.40049204230308533</v>
-      </c>
-      <c r="D3" s="41">
-        <v>0.1192171350121498</v>
-      </c>
-      <c r="E3" s="41">
-        <v>8.3910830318927765E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>0.113278828561306</v>
-      </c>
-      <c r="G3" s="41">
-        <v>0.1256592869758606</v>
-      </c>
-      <c r="H3" s="43">
-        <v>1127</v>
-      </c>
-      <c r="I3" s="44" t="s">
+      <c r="B3" s="19">
+        <v>0.1280583739280701</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.44332218170166021</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.1210649311542511</v>
+      </c>
+      <c r="E3" s="36">
+        <v>9.9855169653892517E-2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>7.9556785523891449E-2</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0.1281425803899765</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <f>SUMPRODUCT(B3:G3,$B$21:$G$21)</f>
-        <v>2.3996329009532928</v>
-      </c>
-      <c r="L3" s="36">
+        <v>2.4153296127915387</v>
+      </c>
+      <c r="L3" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
-        <v>5.9691887348890298E-2</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.204874113202095</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.25519180297851563</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.24924953281879431</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.11481247097253799</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.1161801218986511</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="19">
+        <v>5.511576309800148E-2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.14191384613513949</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.32337573170661932</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.25058481097221369</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.12630572915077209</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0.1027040332555771</v>
+      </c>
+      <c r="H4" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="20">
+        <f>SUMPRODUCT(B4:G4,$B$21:$G$21)</f>
+        <v>1.9273165799677376</v>
+      </c>
+      <c r="L4" s="31">
         <v>3</v>
       </c>
-      <c r="K4" s="21">
-        <f>SUMPRODUCT(B4:G4,$B$21:$G$21)</f>
-        <v>1.9159422256052494</v>
-      </c>
-      <c r="L4" s="36">
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2.8303187340497971E-2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7.0105642080307007E-2</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.32538631558418268</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.31545823812484741</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.19234928488731379</v>
+      </c>
+      <c r="G5" s="36">
+        <v>6.8397402763366699E-2</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
+      <c r="K5" s="20">
+        <f>SUMPRODUCT(B5:G5,$B$21:$G$21)</f>
+        <v>1.8793761990964413</v>
+      </c>
+      <c r="L5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
-        <v>3.6692261695861823E-2</v>
-      </c>
-      <c r="C5" s="41">
-        <v>9.9536880850791931E-2</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0.24869486689567569</v>
-      </c>
-      <c r="E5" s="42">
-        <v>0.26738858222961431</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0.21245452761650091</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.13523288071155551</v>
-      </c>
-      <c r="H5" s="43">
-        <v>1127</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7">
-        <v>4</v>
-      </c>
-      <c r="K5" s="21">
-        <f>SUMPRODUCT(B5:G5,$B$21:$G$21)</f>
-        <v>1.3987607210874557</v>
-      </c>
-      <c r="L5" s="36">
+    </row>
+    <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.1562401354312897</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.20138274133205411</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.16194608807563779</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.19977641105651861</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.1077250018715858</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.17292959988117221</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1127</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25">
-        <v>12</v>
-      </c>
-      <c r="B6" s="26">
-        <v>2.347109466791153E-2</v>
-      </c>
-      <c r="C6" s="27">
-        <v>6.5022394061088562E-2</v>
-      </c>
-      <c r="D6" s="27">
-        <v>9.8752699792385101E-2</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0.22802622616291049</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0.19322715699672699</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.39150044322013849</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1127</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="29">
-        <v>5</v>
-      </c>
+      <c r="J6" s="41"/>
       <c r="K6" s="30">
         <f>SUMPRODUCT(B6:G6,$B$21:$G$21)</f>
-        <v>-0.63451945781707741</v>
-      </c>
-      <c r="L6" s="39">
+        <v>1.7151997312903404</v>
+      </c>
+      <c r="L6" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.029171027243137E-2</v>
+      </c>
+      <c r="C7" s="36">
+        <v>6.3616231083869934E-2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.10355660319328309</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.34378284215927118</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.20411655306816101</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0.26463600993156428</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="40">
+        <v>4</v>
+      </c>
+      <c r="K7" s="42">
+        <f>SUMPRODUCT(B7:G7,$B$21:$G$21)</f>
+        <v>0.23509547300636791</v>
+      </c>
+      <c r="L7" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0.21481615304946899</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0.17655105888843539</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.1488872766494751</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.175089105963707</v>
-      </c>
-      <c r="F7" s="22">
-        <v>8.2603022456169128E-2</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0.20205336809158331</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I7" s="5" t="s">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6.4245155081152916E-3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.7666848376393322E-2</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4.9422338604927063E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>6.2120847404003143E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>7.1339808404445648E-2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.7930256724357605</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="20">
+        <f>SUMPRODUCT(B8:G8,$B$21:$G$21)</f>
+        <v>-3.5184898721054196</v>
+      </c>
+      <c r="L8" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="B9" s="19">
+        <v>2.2904223296791319E-3</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.1093068867921829E-2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2.410820871591568E-2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.0196258574724197E-2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5.5671326816082001E-2</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.86664068698883057</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="20">
+        <f>SUMPRODUCT(B9:G9,$B$21:$G$21)</f>
+        <v>-4.0689905777107924</v>
+      </c>
+      <c r="L9" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.885158359073102E-3</v>
+      </c>
+      <c r="C10" s="21">
+        <v>5.0931563600897789E-3</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2.324216440320015E-2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4.8072963953018188E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.8475545570254329E-2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.90323102474212646</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="20">
+        <f>SUMPRODUCT(B10:G10,$B$21:$G$21)</f>
+        <v>-4.3020087397890165</v>
+      </c>
+      <c r="L10" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="K7" s="21">
-        <f>SUMPRODUCT(B7:G7,$B$21:$G$21)</f>
-        <v>1.6494612246751783</v>
-      </c>
-      <c r="L7" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20">
-        <v>9.3399221077561378E-3</v>
-      </c>
-      <c r="C8" s="22">
-        <v>2.098459005355835E-2</v>
-      </c>
-      <c r="D8" s="22">
-        <v>5.4882388561964042E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5.2010968327522278E-2</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.1074425056576729</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.75533956289291382</v>
-      </c>
-      <c r="H8" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="B11" s="19">
+        <v>1.8064304022118449E-3</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5.164027214050293E-3</v>
+      </c>
+      <c r="D11" s="21">
+        <v>2.0497960969805721E-2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1.9372552633285519E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2.8782498091459271E-2</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.92437654733657837</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="20">
+        <f>SUMPRODUCT(B11:G11,$B$21:$G$21)</f>
+        <v>-4.463172989548184</v>
+      </c>
+      <c r="L11" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3.2963217236101632E-3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>8.5782259702682495E-3</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2.1441711112856861E-2</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1.571064256131649E-2</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2.3218292742967609E-2</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.92775481939315796</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="20">
+        <f>SUMPRODUCT(B12:G12,$B$21:$G$21)</f>
+        <v>-4.4690148732624948</v>
+      </c>
+      <c r="L12" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1.6654790379107001E-3</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4.4996445067226887E-3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1.873435266315937E-2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1.2644718401134011E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.516891550272703E-2</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.94728690385818481</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="20">
+        <f>SUMPRODUCT(B13:G13,$B$21:$G$21)</f>
+        <v>-4.6134471357800066</v>
+      </c>
+      <c r="L13" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1.7630916554480789E-3</v>
+      </c>
+      <c r="C14" s="21">
+        <v>5.1252972334623337E-3</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1.9569197669625279E-2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1.231485139578581E-2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1.287463493645191E-2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.9483528733253479</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="20">
+        <f>SUMPRODUCT(B14:G14,$B$21:$G$21)</f>
+        <v>-4.6162357886787504</v>
+      </c>
+      <c r="L14" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="14">
         <v>9</v>
       </c>
-      <c r="J8" s="32">
-        <v>7</v>
-      </c>
-      <c r="K8" s="21">
-        <f>SUMPRODUCT(B8:G8,$B$21:$G$21)</f>
-        <v>-3.2699482357129455</v>
-      </c>
-      <c r="L8" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20">
-        <v>3.838565200567245E-3</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1.6706550493836399E-2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>3.2437950372695923E-2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>4.9319040030241013E-2</v>
-      </c>
-      <c r="F9" s="22">
-        <v>5.9155795723199837E-2</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.83854216337203979</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="32">
-        <v>8</v>
-      </c>
-      <c r="K9" s="21">
-        <f>SUMPRODUCT(B9:G9,$B$21:$G$21)</f>
-        <v>-3.8515840619802475</v>
-      </c>
-      <c r="L9" s="33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="B15" s="19">
+        <v>1.763941720128059E-3</v>
+      </c>
+      <c r="C15" s="21">
+        <v>5.1277684979140759E-3</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1.957863382995129E-2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.183863263577223E-2</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1.2880842201411721E-2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.9488101601600647</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="20">
+        <f>SUMPRODUCT(B15:G15,$B$21:$G$21)</f>
+        <v>-4.6194260092452168</v>
+      </c>
+      <c r="L15" s="31">
         <v>14</v>
       </c>
-      <c r="B10" s="20">
-        <v>2.722846576943994E-3</v>
-      </c>
-      <c r="C10" s="22">
-        <v>6.7781442776322356E-3</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1.8805729225277901E-2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>4.7870952636003487E-2</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2.34484001994133E-2</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.90037387609481812</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I10" s="24" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="14">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1.622042269445956E-3</v>
+      </c>
+      <c r="C16" s="36">
+        <v>5.1058568060398102E-3</v>
+      </c>
+      <c r="D16" s="36">
+        <v>1.5722723677754399E-2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1.208681426942348E-2</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1.2959969229996199E-2</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.9525025486946106</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="20">
+        <f>SUMPRODUCT(B16:G16,$B$21:$G$21)</f>
+        <v>-4.6496773360995576</v>
+      </c>
+      <c r="L16" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="14">
+        <v>18</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1.59162376075983E-3</v>
+      </c>
+      <c r="C17" s="36">
+        <v>4.734985064715147E-3</v>
+      </c>
+      <c r="D17" s="36">
+        <v>1.609065197408199E-2</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1.1860141530632969E-2</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1.271692477166653E-2</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.95300561189651489</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1127</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="20">
+        <f>SUMPRODUCT(B17:G17,$B$21:$G$21)</f>
+        <v>-4.6534208366647363</v>
+      </c>
+      <c r="L17" s="31">
         <v>16</v>
       </c>
-      <c r="J10" s="32">
-        <v>9</v>
-      </c>
-      <c r="K10" s="21">
-        <f>SUMPRODUCT(B10:G10,$B$21:$G$21)</f>
-        <v>-4.2855350773315877</v>
-      </c>
-      <c r="L10" s="33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>6</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2.7610920369625092E-3</v>
-      </c>
-      <c r="C11" s="22">
-        <v>8.022005669772625E-3</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1.7489958554506298E-2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2.4194309487938881E-2</v>
-      </c>
-      <c r="F11" s="22">
-        <v>4.9594096839427948E-2</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0.89793848991394043</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="32">
-        <v>10</v>
-      </c>
-      <c r="K11" s="21">
-        <f>SUMPRODUCT(B11:G11,$B$21:$G$21)</f>
-        <v>-4.2933463752269745</v>
-      </c>
-      <c r="L11" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20">
-        <v>4.579062107950449E-3</v>
-      </c>
-      <c r="C12" s="22">
-        <v>9.6703749150037766E-3</v>
-      </c>
-      <c r="D12" s="22">
-        <v>2.0628504455089569E-2</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1.7410127446055409E-2</v>
-      </c>
-      <c r="F12" s="22">
-        <v>3.047863207757473E-2</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.91723322868347168</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="32">
-        <v>11</v>
-      </c>
-      <c r="K12" s="21">
-        <f>SUMPRODUCT(B12:G12,$B$21:$G$21)</f>
-        <v>-4.3974049328826368</v>
-      </c>
-      <c r="L12" s="33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>9</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1.730800024233758E-3</v>
-      </c>
-      <c r="C13" s="22">
-        <v>5.3822328336536884E-3</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1.5705542638897899E-2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1.2993318028748041E-2</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1.5168514102697371E-2</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0.94901955127716064</v>
-      </c>
-      <c r="H13" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="32">
-        <v>12</v>
-      </c>
-      <c r="K13" s="21">
-        <f>SUMPRODUCT(B13:G13,$B$21:$G$21)</f>
-        <v>-4.6266430468531325</v>
-      </c>
-      <c r="L13" s="33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>11</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1.730800024233758E-3</v>
-      </c>
-      <c r="C14" s="22">
-        <v>5.3822328336536884E-3</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1.5705542638897899E-2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1.2993318028748041E-2</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1.5168514102697371E-2</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0.94901955127716064</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I14" s="24" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19">
+        <v>8.6206727428361773E-4</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2.889870665967464E-3</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1.0108933784067631E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <v>7.6896529644727707E-3</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1.287079695612192E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.96557873487472534</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="20">
+        <f>SUMPRODUCT(B18:G18,$B$21:$G$21)</f>
+        <v>-4.7534469511010684</v>
+      </c>
+      <c r="L18" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A19" s="14">
         <v>13</v>
       </c>
-      <c r="J14" s="32">
-        <v>13</v>
-      </c>
-      <c r="K14" s="21">
-        <f>SUMPRODUCT(B14:G14,$B$21:$G$21)</f>
-        <v>-4.6266430468531325</v>
-      </c>
-      <c r="L14" s="33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>17</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2.3609672207385302E-3</v>
-      </c>
-      <c r="C15" s="22">
-        <v>6.2254508957266808E-3</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1.636970229446888E-2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1.5817435458302501E-2</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1.8789561465382579E-2</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0.94043689966201782</v>
-      </c>
-      <c r="H15" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="32">
-        <v>14</v>
-      </c>
-      <c r="K15" s="21">
-        <f>SUMPRODUCT(B15:G15,$B$21:$G$21)</f>
-        <v>-4.5659443193580955</v>
-      </c>
-      <c r="L15" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="B19" s="19">
+        <v>9.8335102666169405E-4</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3.6771697923541069E-3</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.257677748799324E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>6.0062650591135034E-3</v>
+      </c>
+      <c r="F19" s="21">
+        <v>8.9420406147837639E-3</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.96781444549560547</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1127</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="20">
+        <f>SUMPRODUCT(B19:G19,$B$21:$G$21)</f>
+        <v>-4.760761889978312</v>
+      </c>
+      <c r="L19" s="31">
         <v>18</v>
       </c>
-      <c r="B16" s="20">
-        <v>1.8452403601258991E-3</v>
-      </c>
-      <c r="C16" s="41">
-        <v>5.6176865473389634E-3</v>
-      </c>
-      <c r="D16" s="41">
-        <v>1.416275091469288E-2</v>
-      </c>
-      <c r="E16" s="41">
-        <v>1.4156444929540161E-2</v>
-      </c>
-      <c r="F16" s="41">
-        <v>1.632307656109333E-2</v>
-      </c>
-      <c r="G16" s="41">
-        <v>0.94789475202560425</v>
-      </c>
-      <c r="H16" s="43">
-        <v>1127</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="32">
+    </row>
+    <row r="20" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="23">
         <v>15</v>
       </c>
-      <c r="K16" s="21">
-        <f>SUMPRODUCT(B16:G16,$B$21:$G$21)</f>
-        <v>-4.6206525929737836</v>
-      </c>
-      <c r="L16" s="33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1.8389441538602109E-3</v>
-      </c>
-      <c r="C17" s="22">
-        <v>5.9226043522357941E-3</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1.227523945271969E-2</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1.2408494018018249E-2</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2.1607523784041401E-2</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0.94594722986221313</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="32">
-        <v>16</v>
-      </c>
-      <c r="K17" s="21">
-        <f>SUMPRODUCT(B17:G17,$B$21:$G$21)</f>
-        <v>-4.6136007809545845</v>
-      </c>
-      <c r="L17" s="33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1.8345820717513559E-3</v>
-      </c>
-      <c r="C18" s="22">
-        <v>6.2966765835881233E-3</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1.291436143219471E-2</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1.407467480748892E-2</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1.6228791326284409E-2</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.94865089654922485</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="32">
-        <v>17</v>
-      </c>
-      <c r="K18" s="21">
-        <f>SUMPRODUCT(B18:G18,$B$21:$G$21)</f>
-        <v>-4.6257736408151686</v>
-      </c>
-      <c r="L18" s="33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>13</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1.305869431234896E-3</v>
-      </c>
-      <c r="C19" s="22">
-        <v>5.0685172900557518E-3</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1.270275097340345E-2</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1.008205115795135E-2</v>
-      </c>
-      <c r="F19" s="22">
-        <v>1.1790596880018709E-2</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0.95905023813247681</v>
-      </c>
-      <c r="H19" s="24">
-        <v>1127</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="32">
-        <v>18</v>
-      </c>
-      <c r="K19" s="21">
-        <f>SUMPRODUCT(B19:G19,$B$21:$G$21)</f>
-        <v>-4.6983848222298548</v>
-      </c>
-      <c r="L19" s="33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="25">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26">
-        <v>1.305869431234896E-3</v>
-      </c>
-      <c r="C20" s="27">
-        <v>5.0685172900557518E-3</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1.270275097340345E-2</v>
-      </c>
-      <c r="E20" s="27">
-        <v>1.008205115795135E-2</v>
-      </c>
-      <c r="F20" s="27">
-        <v>1.1790596880018709E-2</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0.95905023813247681</v>
+      <c r="B20" s="24">
+        <v>9.659992647357285E-4</v>
+      </c>
+      <c r="C20" s="25">
+        <v>3.612283850088716E-3</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1.2354853563010691E-2</v>
+      </c>
+      <c r="E20" s="25">
+        <v>5.9002814814448357E-3</v>
+      </c>
+      <c r="F20" s="25">
+        <v>8.7842531502246857E-3</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.96838229894638062</v>
       </c>
       <c r="H20" s="3">
         <v>1127</v>
@@ -1542,47 +1514,45 @@
       <c r="I20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="29"/>
+      <c r="K20" s="30">
+        <f>SUMPRODUCT(B20:G20,$B$21:$G$21)</f>
+        <v>-4.7649829862057231</v>
+      </c>
+      <c r="L20" s="28">
         <v>19</v>
       </c>
-      <c r="K20" s="35">
-        <f>SUMPRODUCT(B20:G20,$B$21:$G$21)</f>
-        <v>-4.6983848222298548</v>
-      </c>
-      <c r="L20" s="33">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="40"/>
-      <c r="B21" s="9">
+      <c r="A21" s="35"/>
+      <c r="B21" s="8">
         <v>5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>-5</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L21" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
-      <sortCondition ref="J1:J21"/>
+      <sortCondition descending="1" ref="K1:K21"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G20">

--- a/final_data_rr.xlsx
+++ b/final_data_rr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/Semestr 8/DS_Python/F1-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{76CA284F-FC99-40B1-B18F-69F95559C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76D9CD7-F903-45A7-826C-B4363F062131}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{76CA284F-FC99-40B1-B18F-69F95559C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB0E94C-24B9-4864-BDBB-08FC559A6943}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>raceId</t>
   </si>
@@ -107,24 +107,14 @@
     <t>score</t>
   </si>
   <si>
-    <t>end_position_pred_1</t>
-  </si>
-  <si>
-    <t>end_position_pred_2</t>
+    <t>rank_prediction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,70 +383,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,223 +748,207 @@
     <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="8">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="14">
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>0.8307875394821167</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>0.1044270917773247</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>1.9295798614621159E-2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>2.047540619969368E-2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>1.00927734747529E-2</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>1.492130383849144E-2</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="14">
         <v>1127</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J20" si="0">SUMPRODUCT(B2:G2,$B$21:$G$21)</f>
+        <v>4.6059705270454288</v>
+      </c>
+      <c r="K2" s="28">
         <v>1</v>
       </c>
-      <c r="K2" s="18">
-        <f>SUMPRODUCT(B2:G2,$B$21:$G$21)</f>
-        <v>4.6059705270454288</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="14">
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>0.1280583739280701</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="31">
         <v>0.44332218170166021</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="18">
         <v>0.1210649311542511</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="18">
         <v>9.9855169653892517E-2</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="18">
         <v>7.9556785523891449E-2</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="18">
         <v>0.1281425803899765</v>
       </c>
-      <c r="H3" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4153296127915387</v>
+      </c>
+      <c r="K3" s="26">
         <v>2</v>
       </c>
-      <c r="K3" s="20">
-        <f>SUMPRODUCT(B3:G3,$B$21:$G$21)</f>
-        <v>2.4153296127915387</v>
-      </c>
-      <c r="L3" s="31">
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>5.511576309800148E-2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="18">
         <v>0.14191384613513949</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="18">
         <v>0.32337573170661932</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="18">
         <v>0.25058481097221369</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="31">
         <v>0.12630572915077209</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="18">
         <v>0.1027040332555771</v>
       </c>
-      <c r="H4" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7">
-        <v>5</v>
-      </c>
-      <c r="K4" s="20">
-        <f>SUMPRODUCT(B4:G4,$B$21:$G$21)</f>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
         <v>1.9273165799677376</v>
       </c>
-      <c r="L4" s="31">
+      <c r="K4" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="14">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>2.8303187340497971E-2</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="18">
         <v>7.0105642080307007E-2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="31">
         <v>0.32538631558418268</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="18">
         <v>0.31545823812484741</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="18">
         <v>0.19234928488731379</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="18">
         <v>6.8397402763366699E-2</v>
       </c>
-      <c r="H5" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8793761990964413</v>
+      </c>
+      <c r="K5" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="K5" s="20">
-        <f>SUMPRODUCT(B5:G5,$B$21:$G$21)</f>
-        <v>1.8793761990964413</v>
-      </c>
-      <c r="L5" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>0.1562401354312897</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>0.20138274133205411</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>0.16194608807563779</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>0.19977641105651861</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>0.1077250018715858</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>0.17292959988117221</v>
       </c>
       <c r="H6" s="3">
@@ -994,518 +957,502 @@
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="30">
-        <f>SUMPRODUCT(B6:G6,$B$21:$G$21)</f>
+      <c r="J6" s="25">
+        <f t="shared" si="0"/>
         <v>1.7151997312903404</v>
       </c>
-      <c r="L6" s="34">
+      <c r="K6" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="26">
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="23">
         <v>12</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>2.029171027243137E-2</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="18">
         <v>6.3616231083869934E-2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="18">
         <v>0.10355660319328309</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="31">
         <v>0.34378284215927118</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="18">
         <v>0.20411655306816101</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="18">
         <v>0.26463600993156428</v>
       </c>
-      <c r="H7" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="40">
-        <v>4</v>
-      </c>
-      <c r="K7" s="42">
-        <f>SUMPRODUCT(B7:G7,$B$21:$G$21)</f>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
         <v>0.23509547300636791</v>
       </c>
-      <c r="L7" s="31">
+      <c r="K7" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A8" s="14">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>6.4245155081152916E-3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>1.7666848376393322E-2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>4.9422338604927063E-2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>6.2120847404003143E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>7.1339808404445648E-2</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>0.7930256724357605</v>
       </c>
-      <c r="H8" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20">
-        <f>SUMPRODUCT(B8:G8,$B$21:$G$21)</f>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
         <v>-3.5184898721054196</v>
       </c>
-      <c r="L8" s="28">
+      <c r="K8" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="14">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>2.2904223296791319E-3</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>1.1093068867921829E-2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>2.410820871591568E-2</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>4.0196258574724197E-2</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>5.5671326816082001E-2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>0.86664068698883057</v>
       </c>
-      <c r="H9" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="20">
-        <f>SUMPRODUCT(B9:G9,$B$21:$G$21)</f>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
         <v>-4.0689905777107924</v>
       </c>
-      <c r="L9" s="31">
+      <c r="K9" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="14">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
         <v>14</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>1.885158359073102E-3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>5.0931563600897789E-3</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>2.324216440320015E-2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>4.8072963953018188E-2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>1.8475545570254329E-2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>0.90323102474212646</v>
       </c>
-      <c r="H10" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="20">
-        <f>SUMPRODUCT(B10:G10,$B$21:$G$21)</f>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
         <v>-4.3020087397890165</v>
       </c>
-      <c r="L10" s="28">
+      <c r="K10" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="11">
         <v>6</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>1.8064304022118449E-3</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>5.164027214050293E-3</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>2.0497960969805721E-2</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>1.9372552633285519E-2</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>2.8782498091459271E-2</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>0.92437654733657837</v>
       </c>
-      <c r="H11" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="20">
-        <f>SUMPRODUCT(B11:G11,$B$21:$G$21)</f>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
         <v>-4.463172989548184</v>
       </c>
-      <c r="L11" s="31">
+      <c r="K11" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A12" s="14">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>3.2963217236101632E-3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>8.5782259702682495E-3</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>2.1441711112856861E-2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>1.571064256131649E-2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>2.3218292742967609E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>0.92775481939315796</v>
       </c>
-      <c r="H12" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="20">
-        <f>SUMPRODUCT(B12:G12,$B$21:$G$21)</f>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
         <v>-4.4690148732624948</v>
       </c>
-      <c r="L12" s="28">
+      <c r="K12" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A13" s="14">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A13" s="11">
         <v>17</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>1.6654790379107001E-3</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>4.4996445067226887E-3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>1.873435266315937E-2</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>1.2644718401134011E-2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>1.516891550272703E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>0.94728690385818481</v>
       </c>
-      <c r="H13" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="20">
-        <f>SUMPRODUCT(B13:G13,$B$21:$G$21)</f>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
         <v>-4.6134471357800066</v>
       </c>
-      <c r="L13" s="31">
+      <c r="K13" s="26">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="14">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>1.7630916554480789E-3</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>5.1252972334623337E-3</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>1.9569197669625279E-2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>1.231485139578581E-2</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>1.287463493645191E-2</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>0.9483528733253479</v>
       </c>
-      <c r="H14" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="20">
-        <f>SUMPRODUCT(B14:G14,$B$21:$G$21)</f>
+      <c r="J14" s="17">
+        <f t="shared" si="0"/>
         <v>-4.6162357886787504</v>
       </c>
-      <c r="L14" s="28">
+      <c r="K14" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="14">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>1.763941720128059E-3</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>5.1277684979140759E-3</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>1.957863382995129E-2</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>1.183863263577223E-2</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>1.2880842201411721E-2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>0.9488101601600647</v>
       </c>
-      <c r="H15" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="20">
-        <f>SUMPRODUCT(B15:G15,$B$21:$G$21)</f>
+      <c r="J15" s="17">
+        <f t="shared" si="0"/>
         <v>-4.6194260092452168</v>
       </c>
-      <c r="L15" s="31">
+      <c r="K15" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="14">
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
         <v>10</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>1.622042269445956E-3</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="18">
         <v>5.1058568060398102E-3</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="18">
         <v>1.5722723677754399E-2</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="18">
         <v>1.208681426942348E-2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="18">
         <v>1.2959969229996199E-2</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="18">
         <v>0.9525025486946106</v>
       </c>
-      <c r="H16" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="20">
-        <f>SUMPRODUCT(B16:G16,$B$21:$G$21)</f>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
         <v>-4.6496773360995576</v>
       </c>
-      <c r="L16" s="28">
+      <c r="K16" s="24">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="14">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="11">
         <v>18</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>1.59162376075983E-3</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="18">
         <v>4.734985064715147E-3</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="18">
         <v>1.609065197408199E-2</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="18">
         <v>1.1860141530632969E-2</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="18">
         <v>1.271692477166653E-2</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="18">
         <v>0.95300561189651489</v>
       </c>
-      <c r="H17" s="38">
-        <v>1127</v>
-      </c>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="20">
-        <f>SUMPRODUCT(B17:G17,$B$21:$G$21)</f>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
         <v>-4.6534208366647363</v>
       </c>
-      <c r="L17" s="31">
+      <c r="K17" s="26">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="14">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>8.6206727428361773E-4</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>2.889870665967464E-3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>1.0108933784067631E-2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>7.6896529644727707E-3</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>1.287079695612192E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>0.96557873487472534</v>
       </c>
-      <c r="H18" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="20">
-        <f>SUMPRODUCT(B18:G18,$B$21:$G$21)</f>
+      <c r="J18" s="17">
+        <f t="shared" si="0"/>
         <v>-4.7534469511010684</v>
       </c>
-      <c r="L18" s="28">
+      <c r="K18" s="24">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A19" s="14">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
         <v>13</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>9.8335102666169405E-4</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>3.6771697923541069E-3</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="18">
         <v>1.257677748799324E-2</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>6.0062650591135034E-3</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>8.9420406147837639E-3</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>0.96781444549560547</v>
       </c>
-      <c r="H19" s="22">
-        <v>1127</v>
-      </c>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="19">
+        <v>1127</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="20">
-        <f>SUMPRODUCT(B19:G19,$B$21:$G$21)</f>
+      <c r="J19" s="17">
+        <f t="shared" si="0"/>
         <v>-4.760761889978312</v>
       </c>
-      <c r="L19" s="31">
+      <c r="K19" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
+    <row r="20" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="20">
         <v>15</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>9.659992647357285E-4</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>3.612283850088716E-3</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <v>1.2354853563010691E-2</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>5.9002814814448357E-3</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>8.7842531502246857E-3</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="22">
         <v>0.96838229894638062</v>
       </c>
       <c r="H20" s="3">
@@ -1514,45 +1461,43 @@
       <c r="I20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30">
-        <f>SUMPRODUCT(B20:G20,$B$21:$G$21)</f>
+      <c r="J20" s="25">
+        <f t="shared" si="0"/>
         <v>-4.7649829862057231</v>
       </c>
-      <c r="L20" s="28">
+      <c r="K20" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="8">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <v>-5</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="2"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
-      <sortCondition descending="1" ref="K1:K21"/>
+  <autoFilter ref="A1:K21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
+      <sortCondition descending="1" ref="J1:J21"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B2:G20">
